--- a/reporte_registro.xlsx
+++ b/reporte_registro.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,13 +450,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="31" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="28" customWidth="1" min="7" max="7"/>
-    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="3" customWidth="1" min="6" max="6"/>
+    <col width="3" customWidth="1" min="7" max="7"/>
+    <col width="3" customWidth="1" min="8" max="8"/>
+    <col width="3" customWidth="1" min="9" max="9"/>
+    <col width="3" customWidth="1" min="10" max="10"/>
+    <col width="3" customWidth="1" min="11" max="11"/>
+    <col width="3" customWidth="1" min="12" max="12"/>
+    <col width="4" customWidth="1" min="13" max="13"/>
+    <col width="4" customWidth="1" min="14" max="14"/>
+    <col width="4" customWidth="1" min="15" max="15"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="18" max="18"/>
+    <col width="4" customWidth="1" min="19" max="19"/>
+    <col width="4" customWidth="1" min="20" max="20"/>
+    <col width="4" customWidth="1" min="21" max="21"/>
+    <col width="4" customWidth="1" min="22" max="22"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="11" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="11" customWidth="1" min="26" max="26"/>
+    <col width="12" customWidth="1" min="27" max="27"/>
+    <col width="12" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,7 +495,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Número de DNI</t>
+          <t>Código</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -484,27 +505,132 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Correo</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Celular</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Sede</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Programa</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Fecha de Registro</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="W2" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="X2" s="2" t="inlineStr">
+        <is>
+          <t>Prom E.P.</t>
+        </is>
+      </c>
+      <c r="Y2" s="2" t="inlineStr">
+        <is>
+          <t>E.F.</t>
+        </is>
+      </c>
+      <c r="Z2" s="2" t="inlineStr">
+        <is>
+          <t>Prom T.A.</t>
+        </is>
+      </c>
+      <c r="AA2" s="2" t="inlineStr">
+        <is>
+          <t>E.P. (30%)</t>
+        </is>
+      </c>
+      <c r="AB2" s="2" t="inlineStr">
+        <is>
+          <t>E.F. (50%)</t>
+        </is>
+      </c>
+      <c r="AC2" s="2" t="inlineStr">
+        <is>
+          <t>Prom Final</t>
         </is>
       </c>
     </row>
@@ -514,39 +640,122 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>001</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Marquillo Patrick</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>patrick.marquillo3@gmail.com</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>956467070</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>Ingeniería de Software</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>20-05-2025</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W3" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="X3" s="4" t="inlineStr"/>
+      <c r="Y3" s="4" t="inlineStr"/>
+      <c r="Z3" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="AA3" s="4" t="inlineStr"/>
+      <c r="AB3" s="4" t="inlineStr"/>
+      <c r="AC3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -554,39 +763,122 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>87654321</t>
+          <t>002</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Marin Ariana</t>
+          <t>Ana Gómez</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>arianamarin@hotmail.com</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>987123456</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Arequipa</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>Administración de Empresas</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>30-07-2025</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="inlineStr"/>
+      <c r="Y4" s="4" t="inlineStr"/>
+      <c r="Z4" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="4" t="inlineStr"/>
+      <c r="AB4" s="4" t="inlineStr"/>
+      <c r="AC4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -594,39 +886,122 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>11223344</t>
+          <t>003</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Patrick Marquillo</t>
+          <t>Carlos López</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>patrick.marquillo@example.com</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>987654322</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>Medicina</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>26-12-2025</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr"/>
+      <c r="Y5" s="4" t="inlineStr"/>
+      <c r="Z5" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA5" s="4" t="inlineStr"/>
+      <c r="AB5" s="4" t="inlineStr"/>
+      <c r="AC5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -634,39 +1009,122 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>55667788</t>
+          <t>004</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Pinedo Franchesco</t>
+          <t>Marta Rodríguez</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>franchesco@gmail.com</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>987654323</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>Derecho</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>11-03-2025</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr"/>
+      <c r="Y6" s="4" t="inlineStr"/>
+      <c r="Z6" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA6" s="4" t="inlineStr"/>
+      <c r="AB6" s="4" t="inlineStr"/>
+      <c r="AC6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -674,39 +1132,122 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>99887766</t>
+          <t>005</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Meneces Roldan</t>
+          <t>Luis Fernández</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>roldan@gmail.com</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>987654324</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Trujillo</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>Arquitectura</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>24-06-2025</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="inlineStr"/>
+      <c r="Y7" s="4" t="inlineStr"/>
+      <c r="Z7" s="4" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA7" s="4" t="inlineStr"/>
+      <c r="AB7" s="4" t="inlineStr"/>
+      <c r="AC7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -714,43 +1255,126 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>44556677</t>
+          <t>006</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Kerri Jhon</t>
+          <t>Laura Martínez</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>jhon@outlook.com</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>987654325</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>Arequipa</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>Contabilidad</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>12-04-2025</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="X8" s="4" t="inlineStr"/>
+      <c r="Y8" s="4" t="inlineStr"/>
+      <c r="Z8" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA8" s="4" t="inlineStr"/>
+      <c r="AB8" s="4" t="inlineStr"/>
+      <c r="AC8" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:Y1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reporte_registro.xlsx
+++ b/reporte_registro.xlsx
@@ -650,112 +650,122 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Q3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="S3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X3" s="4" t="inlineStr"/>
-      <c r="Y3" s="4" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>90</v>
+      </c>
       <c r="Z3" s="4" t="n">
-        <v>88</v>
-      </c>
-      <c r="AA3" s="4" t="inlineStr"/>
-      <c r="AB3" s="4" t="inlineStr"/>
-      <c r="AC3" s="4" t="inlineStr"/>
+        <v>85</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -773,112 +783,122 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Q4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="S4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="T4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X4" s="4" t="inlineStr"/>
-      <c r="Y4" s="4" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>90</v>
+      </c>
       <c r="Z4" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA4" s="4" t="inlineStr"/>
-      <c r="AB4" s="4" t="inlineStr"/>
-      <c r="AC4" s="4" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>70.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -896,112 +916,122 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Q5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="S5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="T5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="inlineStr"/>
-      <c r="Y5" s="4" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>93</v>
+      </c>
       <c r="Z5" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA5" s="4" t="inlineStr"/>
-      <c r="AB5" s="4" t="inlineStr"/>
-      <c r="AC5" s="4" t="inlineStr"/>
+        <v>92</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>72.90000000000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -1019,112 +1049,122 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Q6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="S6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="T6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="inlineStr"/>
-      <c r="Y6" s="4" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>92</v>
+      </c>
       <c r="Z6" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA6" s="4" t="inlineStr"/>
-      <c r="AB6" s="4" t="inlineStr"/>
-      <c r="AC6" s="4" t="inlineStr"/>
+        <v>78</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>71.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -1142,112 +1182,122 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Q7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="S7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="T7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr"/>
-      <c r="Y7" s="4" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>80</v>
+      </c>
       <c r="Z7" s="4" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA7" s="4" t="inlineStr"/>
-      <c r="AB7" s="4" t="inlineStr"/>
-      <c r="AC7" s="4" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -1265,116 +1315,126 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Q8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="S8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="T8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X8" s="4" t="inlineStr"/>
-      <c r="Y8" s="4" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>91</v>
+      </c>
       <c r="Z8" s="4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA8" s="4" t="inlineStr"/>
-      <c r="AB8" s="4" t="inlineStr"/>
-      <c r="AC8" s="4" t="inlineStr"/>
+        <v>88</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>70.7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A1:AC1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
